--- a/biology/Zoologie/Episcada_mira/Episcada_mira.xlsx
+++ b/biology/Zoologie/Episcada_mira/Episcada_mira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada mira est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada mira a été décrit par William Chapman Hewitson en 1877.
-Synonyme : Episcada segesta Weymer, 1899; Episcada comstocki Fox, 1945; Episcada mira[1].
-Nom vernaculaire
-Episcada mira se nomme Mira Clearwing en anglais[2].
+Synonyme : Episcada segesta Weymer, 1899; Episcada comstocki Fox, 1945; Episcada mira.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada mira est un papillon d'une envergure de 45 mm à 50 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave[3].
-Les ailes sont transparentes avec de très fines veines et une bordure marron sur le dessus, ocre doré sur le revers. Sur les ailes antérieures une plage jaune pâle orne la base de e4, e5, e6 après la cellule.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada mira se nomme Mira Clearwing en anglais.
 </t>
         </is>
       </c>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada mira est un papillon d'une envergure de 45 mm à 50 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
+Les ailes sont transparentes avec de très fines veines et une bordure marron sur le dessus, ocre doré sur le revers. Sur les ailes antérieures une plage jaune pâle orne la base de e4, e5, e6 après la cellule.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_mira</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_mira</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada mira est présent en Équateur et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada mira est présent en Équateur et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_mira</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_mira</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada mira, sur Wikimedia CommonsEpiscada mira, sur Wikispecies
 </t>
